--- a/medicine/Enfance/Le_Mystérieux_Voyage_de_Marie-Rose/Le_Mystérieux_Voyage_de_Marie-Rose.xlsx
+++ b/medicine/Enfance/Le_Mystérieux_Voyage_de_Marie-Rose/Le_Mystérieux_Voyage_de_Marie-Rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Mystérieux Voyage de Marie-Rose est une comédie musicale de Jean-Jacques Debout, créée le 27 octobre 1984 au Palais des Congrès de Paris jusqu'au 21 décembre 1986. Il est repris les 12 et 13 janvier 2008 dans la même salle[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Mystérieux Voyage de Marie-Rose est une comédie musicale de Jean-Jacques Debout, créée le 27 octobre 1984 au Palais des Congrès de Paris jusqu'au 21 décembre 1986. Il est repris les 12 et 13 janvier 2008 dans la même salle.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Argument</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un groupe d'enfants organise un jeu de piste en forêt. À la tombée de la nuit le petit Mathieu manque à l'appel. C'est alors qu'apparaît en haut d'un vieux chêne une jeune fille, Marie-Rose. Celle-ci promet aux enfants de les aider à retrouver leur ami Mathieu.
 Marie-Rose et les enfants devront alors affronter les quatre éléments qui composent le monde : la terre, l'eau, le feu et l'air…
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">"Mes chers amis,
 Voilà le Troisième Spectacle que j'ai imaginé pour vous au Palais des Congrès de Paris. Après "Le Soulier qui vole" et "La Planète merveilleuse", voilà le moment venu de partir pour "Le Mystérieux Voyage de Marie-Rose". Cette histoire, je l'ai vécue lorsque j'avais 8 ans et que je me trouvais en pension au Collège de Juilly; Nous aurions bien aimé, mes camarades et moi, que cela se termine comme dans "Le mystérieux voyage de Marie-Rose". Mais je suis certain que notre Ami Mathieu a dû nous voir et qu'il sait que nous l'avons cherché jusqu'au bout de nos forces.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean-Jacques Debout : Livret, dialogue, mise en scène et musique
 Jean-Daniel Mercier : Arrangements et direction musicale
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chantal Goya : Marie-Rose
 Jean Topart : Monsieur le Dragon Bleu
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,8 +666,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Première Partie
-Ouverture
+          <t>Première Partie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ouverture
 Quand on s'est perdu
 Jeannot Lapin
 Ballet des noisettes
@@ -661,9 +686,43 @@
 Mecki le Hérisson
 Papa Mille-Pattes
 Hippocampes, hippocampes
-Oh ! Monsieur le Dragon Bleu
-Deuxième Partie
-Ouverture
+Oh ! Monsieur le Dragon Bleu</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Titres de la première version (1984)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Deuxième Partie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ouverture
 La Chanson de Mathieu
 Poisson d'Avril
 Ma Sirène
@@ -681,39 +740,13 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>La Tournée</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -728,10 +761,40 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>La Tournée</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Titres de la deuxième version (2006)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Ouverture
 Quand on s'est perdu
@@ -748,9 +811,43 @@
 Mecki le Hérisson
 Papa Mille-Pattes
 Hippocampes, hippocampes
-Oh ! Monsieur le Dragon Bleu
-Deuxième Partie
-Ouverture
+Oh ! Monsieur le Dragon Bleu</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Titres de la deuxième version (2006)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Deuxième Partie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Ouverture
 La Chanson de Mathieu
 Poisson d'Avril
 Ma Sirène
@@ -766,76 +863,184 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Autour du spectacle</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Le spectacle a été remonté en 2008.
 La version 1984 a été diffusé à la télévision en 1986 sur TF1 et en 2008 sur M6.</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Supports</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Le spectacle a été commercialisé sous plusieurs formes audio et video :
-Audio
-Le Mystérieux Voyage de Marie-Rose, quatrième album live de Chantal Goya, a été édité en 1985 par RCA en format double vinyle 33 tours (incluant un livret de 12 pages) et en cassette audio longue durée[2]. L'album live a été réédité en 1988 par EMI sous la forme d'un double vinyle 33 tours, d'une cassette audio longue durée et d'un double CD[3].
-Vidéo
-En VHS :
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spectacle a été commercialisé sous plusieurs formes audio et video :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Supports</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Audio</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Mystérieux Voyage de Marie-Rose, quatrième album live de Chantal Goya, a été édité en 1985 par RCA en format double vinyle 33 tours (incluant un livret de 12 pages) et en cassette audio longue durée. L'album live a été réédité en 1988 par EMI sous la forme d'un double vinyle 33 tours, d'une cassette audio longue durée et d'un double CD.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Supports</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vidéo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>En VHS :
 Le Mystérieux Voyage de Marie-Rose a été édité en VHS a deux reprises : en 1991 par Sony Music Vidéo et en 1995 par René Château Vidéo.
 En DVD :
 Une première fois en 2004 par Universal. Le dvd était couplé avec un album best of de la chanteuse.
 Chantal Goya Ses 3 plus beaux spectacles : Coffret 3 dvd incluant Le Mystérieux Voyage de Marie-Rose édité par Sony BMG Music Entertainement / Productions Sterne. Le coffret a été commercialisé le 17 novembre 2008.
 Le Mystérieux Voyage de Marie-Rose : DVD simple édité par Sony BMG Music Entertainement / Productions Sterne. Le dvd a été commercialisé le 30 mars 2009.
-Coffret Collector 3 DVD : Coffret incluant 3 dvd dont le spectacle Le Mystérieux Voyage de Marie-Rose édité par Sony BMG Music Entertainement / Productions Sterne. Le coffret a été commercialisé le 26 octobre 2009.
-Livre
-Un album illustré racontant l'histoire du spectacle est sorti aux éditions Fernand Nathan en 1984.</t>
+Coffret Collector 3 DVD : Coffret incluant 3 dvd dont le spectacle Le Mystérieux Voyage de Marie-Rose édité par Sony BMG Music Entertainement / Productions Sterne. Le coffret a été commercialisé le 26 octobre 2009.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Le_Mystérieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Myst%C3%A9rieux_Voyage_de_Marie-Rose</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Supports</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Livre</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Un album illustré racontant l'histoire du spectacle est sorti aux éditions Fernand Nathan en 1984.</t>
         </is>
       </c>
     </row>
